--- a/_content/john-abbott-college/computerized-systems/lectures/11-excel-math/excels/2024-10-15-AUC.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/11-excel-math/excels/2024-10-15-AUC.xlsx
@@ -5,16 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/11-excel-math/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/11-excel-math/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B688FA-1C81-E14A-BBA5-2C47E33D3984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F377572C-187B-FD48-9BAA-9797D7D2469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" xr2:uid="{C321DF7E-A6E8-A248-B7CB-8F4444CD1BE2}"/>
+    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{C321DF7E-A6E8-A248-B7CB-8F4444CD1BE2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Absorbance" sheetId="3" r:id="rId1"/>
+    <sheet name="AUC" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_56F9DC9755BA473782653E2940F9FormId">"wgLCIiw4e0SgI9CoZtHUJp3jilLXtopAuACrFZSZv1JUOTRHVjcwVlFKMzBEMVU2NksxNk5HOFUzNy4u"</definedName>
+    <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
+    <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{c826aa46-f6d5-4b75-a178-cdc76655ddb8}"</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,19 +42,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Time (hours)</t>
   </si>
   <si>
     <t>Drug Concentration (mg/L)</t>
   </si>
+  <si>
+    <t>Tube #</t>
+  </si>
+  <si>
+    <t>Concentration
+(mg/ml)</t>
+  </si>
+  <si>
+    <t>Absorbance
+(unitless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,6 +80,26 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,15 +119,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9B46D766-F069-C043-A7A0-24E713963668}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,11 +464,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8124749-14A6-D949-B1FD-9CBC596D8B46}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="5.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5165E3A-B658-1A4D-84D7-AE814F06F662}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/_content/john-abbott-college/computerized-systems/lectures/11-excel-math/excels/2024-10-15-AUC.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/11-excel-math/excels/2024-10-15-AUC.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/11-excel-math/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F377572C-187B-FD48-9BAA-9797D7D2469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3FE63D-D2BB-2441-8E91-E600ED786BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{C321DF7E-A6E8-A248-B7CB-8F4444CD1BE2}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{C321DF7E-A6E8-A248-B7CB-8F4444CD1BE2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Absorbance" sheetId="3" r:id="rId1"/>
-    <sheet name="AUC" sheetId="1" r:id="rId2"/>
+    <sheet name="AUC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_56F9DC9755BA473782653E2940F9FormId">"wgLCIiw4e0SgI9CoZtHUJp3jilLXtopAuACrFZSZv1JUOTRHVjcwVlFKMzBEMVU2NksxNk5HOFUzNy4u"</definedName>
@@ -42,30 +41,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Time (hours)</t>
   </si>
   <si>
     <t>Drug Concentration (mg/L)</t>
   </si>
-  <si>
-    <t>Tube #</t>
-  </si>
-  <si>
-    <t>Concentration
-(mg/ml)</t>
-  </si>
-  <si>
-    <t>Absorbance
-(unitless)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,19 +75,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,13 +98,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,98 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8124749-14A6-D949-B1FD-9CBC596D8B46}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="5.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5165E3A-B658-1A4D-84D7-AE814F06F662}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -597,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -605,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
